--- a/system/library/purpletree_multivendor/export/PurpletreePoductExport.xlsx
+++ b/system/library/purpletree_multivendor/export/PurpletreePoductExport.xlsx
@@ -16,13 +16,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>ordertype</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>table_num</t>
+  </si>
+  <si>
+    <t>order_status</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>date_added</t>
+  </si>
+  <si>
+    <t>date_modified</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>345EGP</t>
+  </si>
+  <si>
+    <t>26/02/2021</t>
+  </si>
+  <si>
+    <t>310EGP</t>
+  </si>
+  <si>
+    <t>takeaway</t>
+  </si>
+  <si>
+    <t>220EGP</t>
+  </si>
+  <si>
+    <t>295EGP</t>
+  </si>
+  <si>
+    <t>24/02/2021</t>
+  </si>
+  <si>
+    <t>22/02/2021</t>
+  </si>
+  <si>
+    <t>19/02/2021</t>
+  </si>
+  <si>
+    <t>270EGP</t>
+  </si>
+  <si>
+    <t>690EGP</t>
+  </si>
+  <si>
+    <t>885EGP</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>15/02/2021</t>
+  </si>
+  <si>
+    <t>115EGP</t>
+  </si>
+  <si>
+    <t>12/02/2021</t>
+  </si>
+  <si>
+    <t>11/02/2021</t>
+  </si>
+  <si>
+    <t>08/02/2021</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -32,8 +117,17 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -43,16 +137,42 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="800080"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="49" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -353,7 +473,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -363,7 +483,748 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="true" style="1"/>
+    <col min="2" max="2" width="13" customWidth="true" style="1"/>
+    <col min="3" max="3" width="12" customWidth="true" style="1"/>
+    <col min="4" max="4" width="13" customWidth="true" style="1"/>
+    <col min="5" max="5" width="16" customWidth="true" style="1"/>
+    <col min="6" max="6" width="9" customWidth="true" style="1"/>
+    <col min="7" max="7" width="14" customWidth="true" style="1"/>
+    <col min="8" max="8" width="17" customWidth="true" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" customHeight="1" ht="25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>509</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>508</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>507</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>506</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>505</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>504</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>503</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>502</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>501</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>500</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>499</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>498</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>497</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>495</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>494</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>493</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>492</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>491</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>490</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>489</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>488</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>487</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>486</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>485</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>484</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>483</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>482</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>481</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>480</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>479</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>478</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>477</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
